--- a/resources/rq_2_literature_review_table.xlsx
+++ b/resources/rq_2_literature_review_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="186">
   <si>
     <t>Reference</t>
   </si>
@@ -58,30 +58,15 @@
     <t>Causal Model</t>
   </si>
   <si>
-    <t>[145]</t>
-  </si>
-  <si>
     <t>Scopus</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>[146]</t>
-  </si>
-  <si>
-    <t>[37]</t>
-  </si>
-  <si>
     <t>[147]</t>
   </si>
   <si>
-    <t>[148]</t>
-  </si>
-  <si>
-    <t>[149]</t>
-  </si>
-  <si>
     <t>[150]</t>
   </si>
   <si>
@@ -121,36 +106,24 @@
     <t>[162]</t>
   </si>
   <si>
-    <t>[163]</t>
-  </si>
-  <si>
     <t>[164]</t>
   </si>
   <si>
     <t>[165]</t>
   </si>
   <si>
-    <t>[166]</t>
-  </si>
-  <si>
     <t>[167]</t>
   </si>
   <si>
     <t>[168]</t>
   </si>
   <si>
-    <t>[169]</t>
-  </si>
-  <si>
     <t>[170]</t>
   </si>
   <si>
     <t>[171]</t>
   </si>
   <si>
-    <t>ACM Digital Library</t>
-  </si>
-  <si>
     <t>[172]</t>
   </si>
   <si>
@@ -169,9 +142,6 @@
     <t>[177]</t>
   </si>
   <si>
-    <t>IEEE Xplore</t>
-  </si>
-  <si>
     <t>[178]</t>
   </si>
   <si>
@@ -205,30 +175,15 @@
     <t>[186]</t>
   </si>
   <si>
-    <t>[187]</t>
-  </si>
-  <si>
     <t>[188]</t>
   </si>
   <si>
-    <t>[189]</t>
-  </si>
-  <si>
-    <t>[27]</t>
-  </si>
-  <si>
     <t>[190]</t>
   </si>
   <si>
-    <t>[191]</t>
-  </si>
-  <si>
     <t>[192]</t>
   </si>
   <si>
-    <t>[69]</t>
-  </si>
-  <si>
     <t>[193]</t>
   </si>
   <si>
@@ -244,18 +199,12 @@
     <t>[196]</t>
   </si>
   <si>
-    <t>[197]</t>
-  </si>
-  <si>
     <t>[198]</t>
   </si>
   <si>
     <t>[199]</t>
   </si>
   <si>
-    <t>[200]</t>
-  </si>
-  <si>
     <t>[201]</t>
   </si>
   <si>
@@ -274,21 +223,12 @@
     <t>[206]</t>
   </si>
   <si>
-    <t>[207]</t>
-  </si>
-  <si>
     <t>[208]</t>
   </si>
   <si>
     <t>[209]</t>
   </si>
   <si>
-    <t>[42]</t>
-  </si>
-  <si>
-    <t>[210]</t>
-  </si>
-  <si>
     <t>[211]</t>
   </si>
   <si>
@@ -301,12 +241,6 @@
     <t>[214]</t>
   </si>
   <si>
-    <t>[215]</t>
-  </si>
-  <si>
-    <t>[216]</t>
-  </si>
-  <si>
     <t>Backward</t>
   </si>
   <si>
@@ -331,9 +265,6 @@
     <t>[223]</t>
   </si>
   <si>
-    <t>[121]</t>
-  </si>
-  <si>
     <t>[224]</t>
   </si>
   <si>
@@ -343,9 +274,6 @@
     <t>[226]</t>
   </si>
   <si>
-    <t>[50]</t>
-  </si>
-  <si>
     <t>[227]</t>
   </si>
   <si>
@@ -358,12 +286,6 @@
     <t>[230]</t>
   </si>
   <si>
-    <t>[231]</t>
-  </si>
-  <si>
-    <t>[232]</t>
-  </si>
-  <si>
     <t>[233]</t>
   </si>
   <si>
@@ -379,30 +301,15 @@
     <t>[237]</t>
   </si>
   <si>
-    <t>[238]</t>
-  </si>
-  <si>
-    <t>[239]</t>
-  </si>
-  <si>
     <t>[240]</t>
   </si>
   <si>
-    <t>[241]</t>
-  </si>
-  <si>
     <t>[242]</t>
   </si>
   <si>
     <t>[243]</t>
   </si>
   <si>
-    <t>[102]</t>
-  </si>
-  <si>
-    <t>[244]</t>
-  </si>
-  <si>
     <t>[245]</t>
   </si>
   <si>
@@ -430,24 +337,12 @@
     <t>Forward</t>
   </si>
   <si>
-    <t>[252]</t>
-  </si>
-  <si>
-    <t>[253]</t>
-  </si>
-  <si>
-    <t>[254]</t>
-  </si>
-  <si>
     <t>[255]</t>
   </si>
   <si>
     <t>[256]</t>
   </si>
   <si>
-    <t>[122]</t>
-  </si>
-  <si>
     <t>[257]</t>
   </si>
   <si>
@@ -460,12 +355,6 @@
     <t>[260]</t>
   </si>
   <si>
-    <t>[261]</t>
-  </si>
-  <si>
-    <t>[262]</t>
-  </si>
-  <si>
     <t>[263]</t>
   </si>
   <si>
@@ -481,18 +370,12 @@
     <t>[266]</t>
   </si>
   <si>
-    <t>[21]</t>
-  </si>
-  <si>
     <t>[267]</t>
   </si>
   <si>
     <t>[268]</t>
   </si>
   <si>
-    <t>[269]</t>
-  </si>
-  <si>
     <t>[270]</t>
   </si>
   <si>
@@ -508,57 +391,33 @@
     <t>[274]</t>
   </si>
   <si>
-    <t>[275]</t>
-  </si>
-  <si>
     <t>[127]</t>
   </si>
   <si>
-    <t>[276]</t>
-  </si>
-  <si>
-    <t>[277]</t>
-  </si>
-  <si>
     <t>[278]</t>
   </si>
   <si>
     <t>[279]</t>
   </si>
   <si>
-    <t>[280]</t>
-  </si>
-  <si>
     <t>[281]</t>
   </si>
   <si>
     <t>[282]</t>
   </si>
   <si>
-    <t>[283]</t>
-  </si>
-  <si>
     <t>[284]</t>
   </si>
   <si>
     <t>[285]</t>
   </si>
   <si>
-    <t>[286]</t>
-  </si>
-  <si>
-    <t>[287]</t>
-  </si>
-  <si>
     <t>[288]</t>
   </si>
   <si>
     <t>[289]</t>
   </si>
   <si>
-    <t>[290]</t>
-  </si>
-  <si>
     <t>[291]</t>
   </si>
   <si>
@@ -580,9 +439,6 @@
     <t>[297]</t>
   </si>
   <si>
-    <t>[298]</t>
-  </si>
-  <si>
     <t>[299]</t>
   </si>
   <si>
@@ -596,6 +452,126 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>[38]</t>
+  </si>
+  <si>
+    <t>[311]</t>
+  </si>
+  <si>
+    <t>[313]</t>
+  </si>
+  <si>
+    <t>[310]</t>
+  </si>
+  <si>
+    <t>[137]</t>
+  </si>
+  <si>
+    <t>[29]</t>
+  </si>
+  <si>
+    <t>[314]</t>
+  </si>
+  <si>
+    <t>[73]</t>
+  </si>
+  <si>
+    <t>[90]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[312]</t>
+  </si>
+  <si>
+    <t>[130]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[132]</t>
+  </si>
+  <si>
+    <t>[305]</t>
+  </si>
+  <si>
+    <t>[304]</t>
+  </si>
+  <si>
+    <t>[85]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>[134]</t>
+  </si>
+  <si>
+    <t>[139]</t>
+  </si>
+  <si>
+    <t>[315]</t>
+  </si>
+  <si>
+    <t>[124]</t>
+  </si>
+  <si>
+    <t>[316]</t>
+  </si>
+  <si>
+    <t>[309]</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>[306]</t>
+  </si>
+  <si>
+    <t>[131]</t>
+  </si>
+  <si>
+    <t>[144]</t>
+  </si>
+  <si>
+    <t>[308]</t>
+  </si>
+  <si>
+    <t>[86]</t>
+  </si>
+  <si>
+    <t>[141]</t>
+  </si>
+  <si>
+    <t>[123]</t>
+  </si>
+  <si>
+    <t>[303]</t>
+  </si>
+  <si>
+    <t>[91]</t>
+  </si>
+  <si>
+    <t>[128]</t>
+  </si>
+  <si>
+    <t>[142]</t>
+  </si>
+  <si>
+    <t>[135]</t>
+  </si>
+  <si>
+    <t>[136]</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>IEEEXplore</t>
   </si>
 </sst>
 </file>
@@ -625,12 +601,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -734,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -758,6 +740,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1070,15 +1055,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection sqref="A1:N173"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,97 +1107,103 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1222,17 +1213,19 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1243,25 +1236,27 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1270,16 +1265,18 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1292,57 +1289,63 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1350,49 +1353,53 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1402,45 +1409,49 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1451,18 +1462,20 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1470,24 +1483,26 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1496,20 +1511,22 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1518,29 +1535,31 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1548,19 +1567,21 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1568,43 +1589,47 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1616,17 +1641,19 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1638,24 +1665,26 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1664,13 +1693,15 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1678,27 +1709,29 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1710,95 +1743,101 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1809,54 +1848,58 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="C32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -1868,22 +1911,24 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="C33" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -1892,13 +1937,15 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="C34" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1909,17 +1956,17 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1927,52 +1974,56 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1983,28 +2034,28 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2012,15 +2063,17 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2029,26 +2082,28 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -2060,11 +2115,13 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2075,135 +2132,143 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -2212,16 +2277,18 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C47" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2229,23 +2296,25 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2256,49 +2325,53 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -2310,81 +2383,87 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C51" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C53" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -2392,96 +2471,104 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="6"/>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C54" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C57" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2489,24 +2576,26 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C58" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2515,22 +2604,24 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C59" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2538,25 +2629,27 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C60" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2564,7 +2657,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2572,43 +2665,47 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C62" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2616,7 +2713,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -2624,13 +2721,15 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C63" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2638,50 +2737,52 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N64" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D65" s="5"/>
-      <c r="E65" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2691,94 +2792,106 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C66" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C67" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C69" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -2786,137 +2899,149 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C70" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
+      <c r="K71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C72" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="L72" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K73" s="5"/>
       <c r="L73" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C74" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="I74" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="K74" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L74" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C75" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2927,179 +3052,187 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>96</v>
+    <row r="78" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-    </row>
-    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="J79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L80" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L82" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -3110,81 +3243,87 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="H84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+      <c r="L85" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3192,90 +3331,100 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
+      <c r="J87" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="6"/>
+    <row r="88" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
+      <c r="I88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C91" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -3286,42 +3435,44 @@
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="G93" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -3330,21 +3481,23 @@
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+      <c r="G94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -3352,247 +3505,269 @@
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="I95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
+      <c r="K96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
+      <c r="L97" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98" s="6"/>
+    <row r="98" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
-      <c r="H98" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="5"/>
+        <v>167</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
+      <c r="I99" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M99" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J100" s="5"/>
-      <c r="K100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N101" s="5"/>
-    </row>
-    <row r="102" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B102" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+      <c r="K103" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
-      <c r="I104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
-      <c r="H105" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -3600,62 +3775,70 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B106" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C106" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J106" s="5"/>
-      <c r="K106" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B107" s="6"/>
+    <row r="107" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C107" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="K107" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -3666,64 +3849,62 @@
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B110" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C110" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" s="5"/>
-      <c r="E110" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D111" s="5"/>
-      <c r="E111" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -3734,182 +3915,198 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G112" s="5"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
+      <c r="I112" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B113" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C113" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="I113" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B114" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C114" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="I114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-    </row>
-    <row r="116" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-    </row>
-    <row r="117" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N116" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N118" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -3920,23 +4117,27 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
-      <c r="N119" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G120" s="5"/>
-      <c r="H120" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -3944,19 +4145,21 @@
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
-      <c r="H121" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -3964,16 +4167,20 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
     </row>
-    <row r="122" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B122" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C122" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -3984,21 +4191,21 @@
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C123" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -4008,13 +4215,15 @@
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
     </row>
-    <row r="124" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C124" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -4028,63 +4237,71 @@
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
     </row>
-    <row r="125" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B125" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C125" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="G125" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
+      <c r="I125" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
+      <c r="L126" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
     </row>
-    <row r="127" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
+      <c r="H127" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -4092,103 +4309,123 @@
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
     </row>
-    <row r="128" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B128" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C128" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" s="5"/>
-      <c r="E128" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B129" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C129" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
-      <c r="I129" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
+      <c r="L129" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
     </row>
-    <row r="130" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C130" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
+      <c r="I130" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
+      <c r="K130" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L130" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
     </row>
-    <row r="131" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131" s="6"/>
-      <c r="C131" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
-      <c r="H131" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C132" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4196,490 +4433,514 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
-      <c r="H133" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
+      <c r="L133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
     </row>
-    <row r="135" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B135" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C135" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
-      <c r="I135" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L135" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C136" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
-      <c r="I136" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C137" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
-      <c r="I137" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B138" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
+      <c r="H138" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="J138" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M138" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N138" s="5"/>
-    </row>
-    <row r="139" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E139" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F139" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
+      <c r="H139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L139" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B140" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C140" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
+      <c r="H140" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
+      <c r="J141" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-    </row>
-    <row r="142" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N141" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B142" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C142" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L142" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J142" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D143" s="5"/>
-      <c r="E143" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I143" s="5"/>
-      <c r="J143" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J143" s="5"/>
       <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
+      <c r="L143" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M143" s="5"/>
       <c r="N143" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
       <c r="K144" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C145" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-    </row>
-    <row r="146" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N145" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K146" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
       <c r="L146" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M146" s="5"/>
-      <c r="N146" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C148" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
-      <c r="L148" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="L148" s="5"/>
       <c r="M148" s="5"/>
-      <c r="N148" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B149" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L149" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J149" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
+      <c r="H150" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
-      <c r="N150" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
+      <c r="J151" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K151" s="5"/>
       <c r="L151" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -4687,23 +4948,23 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" s="5"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
@@ -4714,39 +4975,41 @@
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B154" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
-      <c r="J154" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
     </row>
-    <row r="155" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B155" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -4754,82 +5017,94 @@
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
     </row>
-    <row r="156" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B156" s="6"/>
-      <c r="C156" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F156" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
-      <c r="J156" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
     </row>
-    <row r="157" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B157" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C157" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
+      <c r="H157" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
     </row>
-    <row r="158" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
+      <c r="I158" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B159" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
@@ -4840,15 +5115,21 @@
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
     </row>
-    <row r="160" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B160" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -4858,109 +5139,131 @@
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
     </row>
-    <row r="161" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
-      <c r="L161" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="L161" s="5"/>
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B162" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C162" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
+      <c r="L162" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
-    </row>
-    <row r="163" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N162" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B163" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C163" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
-      <c r="I163" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
     </row>
-    <row r="164" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
+      <c r="G164" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
+      <c r="I164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
     </row>
-    <row r="165" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B165" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
@@ -4968,233 +5271,81 @@
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
-    </row>
-    <row r="166" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N165" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
       <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
+      <c r="I166" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
+      <c r="L166" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
     </row>
-    <row r="167" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="5" t="s">
+    <row r="167" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="5">
+        <v>103</v>
+      </c>
+      <c r="D167" s="5">
+        <v>25</v>
+      </c>
+      <c r="E167" s="5">
+        <v>66</v>
+      </c>
+      <c r="F167" s="5">
+        <v>12</v>
+      </c>
+      <c r="G167" s="5">
         <v>16</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="5"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
-    </row>
-    <row r="169" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J169" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K169" s="5"/>
-      <c r="L169" s="5"/>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
-    </row>
-    <row r="170" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B170" s="6"/>
-      <c r="C170" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
-    </row>
-    <row r="171" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B172" s="8"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
-      <c r="L172" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
-    </row>
-    <row r="173" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B173" s="10"/>
-      <c r="C173" s="5">
-        <v>109</v>
-      </c>
-      <c r="D173" s="5">
-        <v>26</v>
-      </c>
-      <c r="E173" s="5">
-        <v>69</v>
-      </c>
-      <c r="F173" s="5">
-        <v>12</v>
-      </c>
-      <c r="G173" s="5">
-        <v>16</v>
-      </c>
-      <c r="H173" s="5">
-        <v>36</v>
-      </c>
-      <c r="I173" s="5">
-        <v>49</v>
-      </c>
-      <c r="J173" s="5">
+      <c r="H167" s="5">
+        <v>35</v>
+      </c>
+      <c r="I167" s="5">
+        <v>45</v>
+      </c>
+      <c r="J167" s="5">
+        <v>32</v>
+      </c>
+      <c r="K167" s="5">
         <v>33</v>
       </c>
-      <c r="K173" s="5">
-        <v>33</v>
-      </c>
-      <c r="L173" s="5">
+      <c r="L167" s="5">
         <v>52</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M167" s="5">
         <v>7</v>
       </c>
-      <c r="N173" s="5">
+      <c r="N167" s="5">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B117:B129"/>
-    <mergeCell ref="B130:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B77"/>
-    <mergeCell ref="B78:B116"/>
+  <mergeCells count="1">
+    <mergeCell ref="A167:B167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
